--- a/biology/Zoologie/Aristocypha/Aristocypha.xlsx
+++ b/biology/Zoologie/Aristocypha/Aristocypha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristocypha est un genre d'insectes odonates (libellules) du sous-ordre des Zygoptera (demoiselles) de la famille des Chlorocyphidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre de demoiselles se rencontre en Asie. Il est notamment présent en Inde[1],[2], au Tibet[1], au Bhoutan[3], en Birmanie[1], en Thailande[4], au Vietnam[1], au Japon[1], à Taiwan[5] et en Malaisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre de demoiselles se rencontre en Asie. Il est notamment présent en Inde au Tibet, au Bhoutan, en Birmanie, en Thailande, au Vietnam, au Japon, à Taiwan et en Malaisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aristocypha a été créé par l'entomologiste britannique Frank Fortescue Laidlaw en 1950 avec pour espèce type Rhinocypha quadrimaculata[6],[7]. Le genre Aristocypha fait débat[7], certains auteurs considérant Aristocypha comme un genre à part entière[8],[9],[10] alors que d'autres le considèrent comme un sous-genre de Rhinocypha[11],[12]. Les publications les plus récentes penchent pour la première hypothèse[7],[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aristocypha a été créé par l'entomologiste britannique Frank Fortescue Laidlaw en 1950 avec pour espèce type Rhinocypha quadrimaculata,. Le genre Aristocypha fait débat, certains auteurs considérant Aristocypha comme un genre à part entière alors que d'autres le considèrent comme un sous-genre de Rhinocypha,. Les publications les plus récentes penchent pour la première hypothèse,.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ailes des mâles sont allongées avec un ratio largeur longueur variant de 1/3 à 1/4. Les ailes sont densément réticulées avec des cellules plus allongées transversalement dans la partie distale[6].
-Le triangle mésothoracique se prolonge sur toute la carène dorsale[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ailes des mâles sont allongées avec un ratio largeur longueur variant de 1/3 à 1/4. Les ailes sont densément réticulées avec des cellules plus allongées transversalement dans la partie distale.
+Le triangle mésothoracique se prolonge sur toute la carène dorsale.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Laidlaw, F. F., 1950. A survey of the Chlorocyphidae (Odonata: Zygoptera), with diagnoses of proposed new genera, and a description of a new geographical subspecies. Transactions of the Royal Entomological Society of London, 101: 257-280.</t>
         </is>
@@ -635,11 +655,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces[13],[1],[14].
-Aristocypha aino Hämäläinen, Reels &amp; Zhang, 2009[7]
-Aristocypha baibarana (Matsumura, 1931)[5]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces.
+Aristocypha aino Hämäläinen, Reels &amp; Zhang, 2009
+Aristocypha baibarana (Matsumura, 1931)
 Aristocypha chaoi (Wilson, 2004)
 Aristocypha cuneata (Selys, 1853)
 Aristocypha fenestrella (Rambur, 1842)
